--- a/image_catalog_database.xlsx
+++ b/image_catalog_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zxb/Documents/CAU/GradeFour/实习/9-skiing_time_deploy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D4BD38-1B64-0C49-BAED-90DA6C018D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBECBF8-AA6B-504D-9AA8-04F805F590A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="2520" windowWidth="27760" windowHeight="17440" xr2:uid="{4CD7B3D0-1750-2A45-BC0E-9E4A5A90431B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>2024-02-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-02-24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5308E2-8E72-204D-8512-14125E2171CA}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="176" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -648,6 +656,50 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>3</v>
       </c>
     </row>
